--- a/sampleinfo_pairings2.xlsx
+++ b/sampleinfo_pairings2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshFam\Desktop\Class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanlester/software_engineering_for_scientists/quiescence_project/repseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B9259E-A589-4846-B361-16C160AA53E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3532D9-F6B8-9F46-9B06-2B934F9261EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{693E3641-0ACD-4AAD-BA8D-92D722807676}"/>
+    <workbookView xWindow="3640" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{693E3641-0ACD-4AAD-BA8D-92D722807676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t xml:space="preserve"> S1 S2 S4 S5 S8</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">S23 S24  </t>
   </si>
   <si>
-    <t>Serum Starvation</t>
-  </si>
-  <si>
     <t>Ctrl3</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Ctrl4</t>
   </si>
   <si>
-    <t>Meki</t>
-  </si>
-  <si>
     <t>S25 S26</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t>Ctrl9</t>
   </si>
   <si>
-    <t>CDK4/6i</t>
-  </si>
-  <si>
-    <t>Contact Inhibition</t>
-  </si>
-  <si>
     <t>Exp3 Clone 1:</t>
   </si>
   <si>
@@ -160,6 +148,36 @@
   </si>
   <si>
     <t>Sample Identity</t>
+  </si>
+  <si>
+    <t>Meki_1</t>
+  </si>
+  <si>
+    <t>Serum_Starvation_1</t>
+  </si>
+  <si>
+    <t>CDK4/6i_1</t>
+  </si>
+  <si>
+    <t>Contact Inhibition_1</t>
+  </si>
+  <si>
+    <t>Serum_Starvation_2</t>
+  </si>
+  <si>
+    <t>Meki_2</t>
+  </si>
+  <si>
+    <t>CDK4/6i_2</t>
+  </si>
+  <si>
+    <t>Contact_Inhibition_2</t>
+  </si>
+  <si>
+    <t>Clone_1_P21_high_v_low</t>
+  </si>
+  <si>
+    <t>Clone_2_P21_high_v_low</t>
   </si>
 </sst>
 </file>
@@ -511,31 +529,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF2D8C6-AE5C-4229-A23A-7C4373701B7C}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -545,8 +563,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -557,9 +578,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -567,8 +588,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -579,156 +603,156 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
         <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/sampleinfo_pairings2.xlsx
+++ b/sampleinfo_pairings2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanlester/software_engineering_for_scientists/quiescence_project/repseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3532D9-F6B8-9F46-9B06-2B934F9261EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A996F-D6DD-784B-BF2A-4C812914B8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{693E3641-0ACD-4AAD-BA8D-92D722807676}"/>
+    <workbookView xWindow="16580" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{693E3641-0ACD-4AAD-BA8D-92D722807676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
